--- a/biology/Botanique/Clos_Barbisier/Clos_Barbisier.xlsx
+++ b/biology/Botanique/Clos_Barbisier/Clos_Barbisier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le clos Barbisier est un jardin public / roseraie du centre historique de Besançon dans le Doubs en Franche-Comté. Ce jardin écologique baptisé du nom de Barbisier, est labellisé Ecojardin.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1988, le service des espaces verts de la municipalité de Besançon crée cet espace vert écologique à l'abri des remparts du Fort Griffon, au sommet du passage de l'Hôtel de Champagney, entre le chemin du Fort Griffon et le 37 rue Battant, au cœur du quartier Battant. Un petit square avec un terrain de jeux pour enfants jouxte la roseraie.
 Il est baptisé du nom de Barbisier, personnage bisontin folklorique de l'ancienne population vigneronne historique du quartier Battant.
